--- a/exports/06b_analysis/llama3.1:70b_V4/Sleep/FN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V4/Sleep/FN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,60 +456,70 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>DCT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LLM_Events_example_evidence_Sent</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Event_Name_Sleep</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>negation</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Sent_Sleep</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_in_gt</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Sent_Sleep</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Sent_Sleep</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Event_Id_LLM_Events_example_evidence_Sent</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Sent</t>
         </is>
@@ -535,25 +545,25 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-20 06:52:00'), Timestamp('2162-06-20 07:20:00'))</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'text': 'eval sleep apnea', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "eval sleep apnea",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['eval sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-20 06:52:00 and 2162-06-20 07:20:00):\n           eval sleep apnea\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 2.978280693059787}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -562,25 +572,35 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>['eval sleep apnea']</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:eval sleep apnea']</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -606,25 +626,25 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-14 04:34:00'), Timestamp('2180-03-14 04:53:00'))</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'text': "s:  i can't sleep at night at home either", 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient history",\n            "attribute_value": "can\'t sleep at night"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-14 04:34:00 and 2180-03-14 04:53:00):\n           s:  i can\'t sleep at night at home either\n        ', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': "can't sleep at night"}]], 'actor': [], 'event_detection_time': 1.5443351469002664}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -652,6 +672,16 @@
         </is>
       </c>
       <c r="Q3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -677,25 +707,25 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-13 04:14:00'), Timestamp('2180-03-13 04:36:00'))</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'text': 'cv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "down significantly when asleep but patient. awakens easily and is coherent",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e58",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e59",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e60",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e61",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e62",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e63",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e64",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e65",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "t</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -723,6 +753,16 @@
         </is>
       </c>
       <c r="Q4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -748,25 +788,25 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-04 04:30:00'), Timestamp('2179-07-04 04:40:00'))</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'text': 'sleep apnea', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "sleep apnea",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-04 04:30:00 and 2179-07-04 04:40:00):\n           sleep apnea\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 2.9357061670161784}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -775,25 +815,35 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>['sleep apnea']</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:sleep apnea']</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -819,25 +869,25 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-11 05:02:00'), Timestamp('2179-07-11 05:15:00'))</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'text': 'slept after 5mg by mouth ambien, bedrest maintained', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept after 5mg by mouth ambien, bedrest maintained",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e9",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e10",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e11",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e12",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e13",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e14",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e15",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e16",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e17",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e18",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e19",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e20",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e21",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e22",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e23",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e24",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e25",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e26",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e27",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e28",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e29",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e30",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e31",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e32",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e33",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e34",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e35",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e36",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e37",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e38",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e39",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e40",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e41",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e42",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e43",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e44",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e45",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e46",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e47",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e48",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e49",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e50",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e51",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e52",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e53",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e54",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e55",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e56",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e57",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e58",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e59",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e60",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e61",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e62",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e63",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e64",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e65",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e66",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e67",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e68",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e69",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e70",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e71",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e72",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e73",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e74",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e75",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e76",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e77",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e78",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e79",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e80",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e81",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e82",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e83",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e84",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "",\n          "location": "",\n          "duration": ""\n        }\n      }\n    },\n    {\n      "event_id": "e85",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e86",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e87",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excre</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -865,6 +915,16 @@
         </is>
       </c>
       <c r="Q6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -890,25 +950,25 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-07 03:24:00'), Timestamp('2186-03-07 03:55:00'))</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'text': 'sleep apnea', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "sleep apnea",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['sleep apnea'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-07 03:24:00 and 2186-03-07 03:55:00):\n           sleep apnea\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': nan}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -917,25 +977,35 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>['sleep apnea']</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:sleep apnea']</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -961,25 +1031,25 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-18 05:26:00'), Timestamp('2167-05-18 05:33:00'))</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'text': '(has not slept well for past 2 nights)', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "sleep history",\n            "attribute_value": "not slept well for past 2 nights"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-18 05:26:00 and 2167-05-18 05:33:00):\n           (has not slept well for past 2 nights)\n        ', 'case_attributes': [[{'attribute_name': 'sleep history', 'attribute_value': 'not slept well for past 2 nights'}]], 'actor': [], 'event_detection_time': 1.6008499041199684}</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1007,6 +1077,16 @@
         </is>
       </c>
       <c r="Q8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1032,25 +1112,25 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-10 04:08:00'), Timestamp('2151-05-10 04:11:00'))</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'text': "in crease captopril dose while sleeping bp in the 80's .. goood response from [** **]", 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "while sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "bp in the 80\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Family",\n            "text_quote": "[** **]",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e58",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e59",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e60",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e61",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e62",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e63",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e64",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e65",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e66",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e67",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e68",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e69",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e70",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e71",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e72",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e73",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e74",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e75",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e76",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e77",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e78",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e79",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e80",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e81",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e82",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e83",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e84",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e85",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e86",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e87",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e88",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "family member",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1078,6 +1158,16 @@
         </is>
       </c>
       <c r="Q9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -1103,25 +1193,25 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-09 01:45:00'), Timestamp('2151-05-09 01:49:00'))</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'text': 'patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "reassured back to sleep, continues to rest",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "calm",\n          "duration": "continues"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "patient turned dumped 100cc serosang",\n      "actor": "patient",\n      "object": "serosang",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "serosang",\n          "frequency": "1",\n          "quality": "100cc"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e9",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e10",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e11",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e12",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e13",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e14",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e15",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e16",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e17",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e18",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e19",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e20",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e21",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e22",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e23",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e24",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e25",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e26",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e27",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e28",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e29",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e30",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e31",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e32",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e33",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e34",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e35",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e36",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e37",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e38",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e39",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e40",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e41",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e42",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e43",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e44",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e45",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e46",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e47",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e48",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e49",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e50",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e51",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e52",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e53",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e54",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e55",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e56",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e57",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e58",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e59",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e60",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e61",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e62",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e63",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e64",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e65",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e66",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e67",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e68",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e69",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e70",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e71",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e72",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e73",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e74",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e75",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e76",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e77",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e78",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e79",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e80",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e81",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e82",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e83",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e84",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e85",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e86",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e87",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e88",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e89",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e90",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e91",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e92",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e93",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e94",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e95",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e96",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e97",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e98",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e99",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e100",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e101",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e102",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e103",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e104",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e105",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e106",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e107",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e108",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e109",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e110",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e111",\n  </t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1149,6 +1239,16 @@
         </is>
       </c>
       <c r="Q10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -1174,25 +1274,25 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(Timestamp('2154-01-13 05:18:00'), Timestamp('2154-01-13 05:35:00'))</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'text': 'events:  patient slept on and off most of night---good effect from ativan, bp slightly improved although 10 pm lisinopril dose held due to sbp=90, no significant', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient slept on and off most of night---good effect from ativan",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "on and off",\n          "duration": "most of night"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "good effect from ativan",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "no significant",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e9",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e10",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e11",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e12",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e13",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e14",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e15",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e16",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e17",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e18",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e19",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e20",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e21",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e22",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e23",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e24",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e25",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e26",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e27",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e28",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e29",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e30",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e31",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e32",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e33",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e34",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e35",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e36",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e37",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e38",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e39",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e40",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e41",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e42",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e43",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e44",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e45",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e46",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e47",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e48",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e49",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e50",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e51",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e52",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e53",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e54",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e55",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e56",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e57",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e58",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e59",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e60",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e61",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e62",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e63",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e64",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e65",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e66",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e67",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e68",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e69",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e70",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e71",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e72",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e73",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e74",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e75",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e76",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e77",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e78",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e79",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e80",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e81",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e82",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e83",\n      "e</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1220,6 +1320,16 @@
         </is>
       </c>
       <c r="Q11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -1245,25 +1355,25 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(Timestamp('2135-02-21 02:07:00'), Timestamp('2135-02-21 02:16:00'))</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'text': 'o2sat 93-95%, h/o sleep apnea', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "history of sleep apnea"\n    }\n  ],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2135-02-21 02:07:00 and 2135-02-21 02:16:00):\n           o2sat 93-95%, h/o sleep apnea\n        ', 'case_attributes': [[{'attribute_name': 'history of sleep apnea'}]], 'actor': [], 'event_detection_time': 1.2712911369744688}</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1291,6 +1401,16 @@
         </is>
       </c>
       <c r="Q12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1316,25 +1436,25 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(Timestamp('2188-12-03 02:51:00'), Timestamp('2188-12-03 03:11:00'))</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'text': 'asthma, niddm, reflux, sleep apnea -&gt; cpap @noc, dvt, bipolar', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "asthma"\n    },\n    {\n      "attribute_name": "niddm"\n    },\n    {\n      "attribute_name": "reflux"\n    },\n    {\n      "attribute_name": "sleep apnea"\n    },\n    {\n      "attribute_name": "cpap @noc"\n    },\n    {\n      "attribute_name": "dvt"\n    },\n    {\n      "attribute_name": "bipolar"\n    }\n  ],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2188-12-03 02:51:00 and 2188-12-03 03:11:00):\n           asthma, niddm, reflux, sleep apnea -&gt; cpap @noc, dvt, bipolar\n        ', 'case_attributes': [[{'attribute_name': 'asthma'}, {'attribute_name': 'niddm'}, {'attribute_name': 'reflux'}, {'attribute_name': 'sleep apnea'}, {'attribute_name': 'cpap @noc'}, {'attribute_name': 'dvt'}, {'attribute_name': 'bipolar'}]], 'actor': [], 'event_detection_time': 3.605415241792798}</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1362,6 +1482,16 @@
         </is>
       </c>
       <c r="Q13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1387,25 +1517,25 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(Timestamp('2108-01-02 05:41:00'), Timestamp('2108-01-02 05:52:00'))</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'text': 'sleep apnea - patient has thick/short neck &amp; obese abd that puts patient at risk', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "sleep apnea",\n            "attribute_value": "patient has thick/short neck &amp; obese abdomen"\n        }\n    ],\n    "events": [],\n    "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2108-01-02 05:41:00 and 2108-01-02 05:52:00):\n           sleep apnea - patient has thick/short neck &amp; obese abd that puts patient at risk\n        ', 'case_attributes': [[{'attribute_name': 'sleep apnea', 'attribute_value': 'patient has thick/short neck &amp; obese abdomen'}]], 'actor': [], 'event_detection_time': 1.6926744719967246}</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1433,6 +1563,16 @@
         </is>
       </c>
       <c r="Q14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1458,25 +1598,25 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(Timestamp('2155-05-05 02:50:00'), Timestamp('2155-05-05 03:10:00'))</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{'text': 'mae, slept well after 5mg by mouth ambien at mn', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "slept well after 5mg by mouth ambien at mn",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "well"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e12",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e13",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e14",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e15",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e16",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e17",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e18",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e19",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e20",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e21",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e22",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e23",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e24",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e25",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e26",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e27",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e28",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e29",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e30",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e31",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e32",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e33",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e34",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e35",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e36",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e37",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e38",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e39",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e40",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e41",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e42",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e43",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e44",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e45",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e46",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e47",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e48",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e49",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e50",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e51",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e52",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e53",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e54",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e55",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e56",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e57",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e58",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e59",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e60",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e61",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e62",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e63",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e64",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e65",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e66",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e67",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e68",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e69",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e70",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e71",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e72",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e73",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e74",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e75",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e76",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e77",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e78",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e79",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e80",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e81",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e82",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e83",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e84",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e85",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e86",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e87",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e88",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1504,6 +1644,16 @@
         </is>
       </c>
       <c r="Q15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>['[]']</t>
         </is>
@@ -1529,25 +1679,25 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(Timestamp('2163-12-27 10:24:00'), Timestamp('2163-12-27 10:47:00'))</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'text': "svo2 60's-70's, dropped to 50's when awake &amp; agitated, co &gt;5, ci&gt;2, recovered after versed given, palp pulses, r groin a line dc'd", 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "svo2 60\'s-70\'s, dropped to 50\'s when awake &amp; agitated, co &gt;5, ci&gt;2, recovered after versed given, palp pulses, r groin a line dc\'d",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ["svo2 60's-70's, dropped to 50's when awake &amp; agitated, co &gt;5, ci&gt;2, recovered after versed given, palp pulses, r groin a line dc'd"], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2163-12-27 10:24:00 and 2163-12-27 10:47:00):\n           svo2 60\'s-70\'s, dropped to 50\'s when awake &amp; agitated, co &gt;5, ci&gt;2, recovered after versed given, palp pulses, r groin a line dc\'d\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 4.281209199922159}</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1556,25 +1706,35 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>["svo2 60's-70's, dropped to 50's when awake &amp; agitated, co &gt;5, ci&gt;2, recovered after versed given, palp pulses, r groin a line dc'd"]</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>["e1=Unknown|1:svo2 60's-70's, dropped to 50's when awake &amp; agitated, co &gt;5, ci&gt;2, recovered after versed given, palp pulses, r groin a line dc'd"]</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1600,25 +1760,25 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(Timestamp('2139-04-24 05:38:00'), Timestamp('2139-04-24 06:02:00'))</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{'text': 'patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2139-04-24 05:38:00 and 2139-04-24 06:02:00):\n           patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.8652665680274367}</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1627,25 +1787,35 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>['patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately']</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient is now awake and alert, moving all extremeties (although very weak due to her swollen hands and feet) and appears to nod yes/no appropriately']</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1671,25 +1841,25 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>(Timestamp('2149-01-16 13:28:00'), Timestamp('2149-01-16 13:39:00'))</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{'text': 'patient then awake having bronchospasms', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown", \n      "text_quote": "patient then awake having bronchospasms",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown"\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient then awake having bronchospasms'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2149-01-16 13:28:00 and 2149-01-16 13:39:00):\n           patient then awake having bronchospasms\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.056969814002514}</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1698,25 +1868,35 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>['patient then awake having bronchospasms']</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient then awake having bronchospasms']</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1742,25 +1922,25 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>(Timestamp('2118-10-20 14:12:00'), Timestamp('2118-10-20 14:28:00'))</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{'text': 'hoping for extubation this afternoon once patient can sit up.long term plan for psych consult once awake for drpression and etoh abuse', 'event': [], 'event_id': [], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "long term plan",\n      "attribute_value": "psych consult"\n    },\n    {\n      "attribute_name": "reasons for long term plan",\n      "attribute_value": "depression and etoh abuse"\n    }\n  ],\n  "events": [],\n  "order": []\n}', 'attributes': [], 'orders': [[]], 'text_quotes': [], 'event_time': [], 'negation': [], 'caused_by': [], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2118-10-20 14:12:00 and 2118-10-20 14:28:00):\n           hoping for extubation this afternoon once patient can sit up.long term plan for psych consult once awake for drpression and etoh abuse\n        ', 'case_attributes': [[{'attribute_name': 'long term plan', 'attribute_value': 'psych consult'}, {'attribute_name': 'reasons for long term plan', 'attribute_value': 'depression and etoh abuse'}]], 'actor': [], 'event_detection_time': 2.4256835230626166}</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1788,6 +1968,16 @@
         </is>
       </c>
       <c r="Q19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1813,29 +2003,29 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(Timestamp('2129-05-22 17:54:00'), Timestamp('2129-05-22 18:07:00'))</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>{'text': 'comforting patient when awake', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "comforting patient when awake",\n      "actor": "others",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['comforting patient when awake'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2129-05-22 17:54:00 and 2129-05-22 18:07:00):\n           comforting patient when awake\n        ', 'case_attributes': [[]], 'actor': ['others'], 'event_detection_time': 3.0752904911059886}</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>So they were sleeping otherwise</t>
         </is>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1844,25 +2034,35 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>['comforting patient when awake']</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:comforting patient when awake']</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -1888,29 +2088,29 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>(Timestamp('2118-01-16 04:47:00'), Timestamp('2118-01-16 04:52:00'))</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>{'text': 'plan: patient not waking and not on sedation, continue neuro assessments', 'event': ['Unknown'], 'event_id': ['e1'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "plan: patient not waking and not on sedation, continue neuro assessments",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Unknown': {}}], 'orders': [[]], 'text_quotes': ['plan: patient not waking and not on sedation, continue neuro assessments'], 'event_time': ['Unknown'], 'negation': [False], 'caused_by': ['Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2118-01-16 04:47:00 and 2118-01-16 04:52:00):\n           plan: patient not waking and not on sedation, continue neuro assessments\n        ', 'case_attributes': [[]], 'actor': ['patient'], 'event_detection_time': 3.3599043369758874}</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>not waking + not sedated = sleep</t>
         </is>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1919,25 +2119,35 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>['Unknown']</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>['plan: patient not waking and not on sedation, continue neuro assessments']</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:plan: patient not waking and not on sedation, continue neuro assessments']</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>

--- a/exports/06b_analysis/llama3.1:70b_V4/Sleep/FN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V4/Sleep/FN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -780,10 +780,10 @@
   <cols>
     <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="30.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="137.4335714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="62.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -970,7 +970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="66">
       <c r="A4" s="3">
         <v>31</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3">
         <v>462</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3">
         <v>465</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3">
         <v>532</v>
       </c>
